--- a/old/Data/ds_tai_khoan_sinh_vien.xlsx
+++ b/old/Data/ds_tai_khoan_sinh_vien.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve"> Nguyễn Tuấn Anh</t>
   </si>
   <si>
-    <t xml:space="preserve"> 15021469</t>
+    <t xml:space="preserve"> 15021470</t>
   </si>
   <si>
     <t xml:space="preserve"> Nguyễn Chu Chiến</t>
@@ -332,7 +332,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -541,7 +541,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -556,7 +556,7 @@
       </c>
       <c r="E10" s="5" t="str">
         <f aca="false">B10&amp;"@vnu.edu.vn"</f>
-        <v> 15021469@vnu.edu.vn</v>
+        <v> 15021470@vnu.edu.vn</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
